--- a/GateWay_DB.xlsx
+++ b/GateWay_DB.xlsx
@@ -411,7 +411,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>5000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">

--- a/GateWay_DB.xlsx
+++ b/GateWay_DB.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\powergit\PowerBI\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="720" yWindow="390" windowWidth="27555" windowHeight="12315"/>
   </bookViews>
@@ -93,6 +98,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -140,7 +148,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,7 +183,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -387,7 +395,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,7 +419,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>25000</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -466,7 +474,7 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>6000</v>
+        <v>58000</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -477,7 +485,7 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>5000</v>
+        <v>36000</v>
       </c>
     </row>
   </sheetData>
